--- a/outputs/PITTSBURG4.xlsx
+++ b/outputs/PITTSBURG4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily displays the details and file structure of the project, with no immediate indication of where to find the list of issues. Due to Abi's motivations and comprehensive information processing style, they would likely need clear directions to feel confident about where to locate issues. This page does not provide such guidance, which could lead Abi to feel uncertain or hesitant about proceeding.</t>
+Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be worked on. Given Abi's preference for familiar methods and comprehensive information processing style, they would likely not consider this page as a step toward finding a list of issues. Additionally, Abi's low computer self-efficacy means they might not feel confident navigating through the project files to find issues.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage is a natural action for Abi to take in order to gather more information. This aligns with Abi's comprehensive information processing style, as they are likely to scan the entire page to ensure they have all the necessary context before taking further action. Scrolling down does not require any specific technical knowledge or confidence, making it a straightforward step for Abi.</t>
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather information comprehensively before acting, and scrolling down is a natural action to explore more content on the page. The page layout suggests that more information might be available below, so Abi would likely know to scroll down to find additional details.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Even after scrolling down, the page does not provide clear information about where to find the list of issues. Abi will not see any sections or links explicitly labeled as "Issues" or similar, which would make them unsure if they are making progress towards their goal. The lack of clear guidance or visible indicators means Abi might not feel confident that they are on the right track, leading to confusion and hesitation.</t>
+Why: After scrolling down the webpage, Abi will not find any information related to issues or where to find them. The page primarily contains project details, files, and a brief description of the project. There is no section or indication of issues or bugs that need to be worked on. This lack of relevant information would make Abi feel that they are not making progress toward their goal, and they might feel uncertain about what to do next due to their low computer self-efficacy.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and there is no accompanying text or tooltip to indicate that it leads to a list of issues. Abi may not be confident in what the icon represents and might hesitate to click it due to their low computer self-efficacy and aversion to risk. Abi prefers clear instructions and process-oriented learning, and without explicit guidance, they may not feel comfortable taking this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled, and Abi might not be familiar with the icon's meaning due to their low computer self-efficacy. Additionally, Abi prefers process-oriented learning and might not feel confident clicking on an unfamiliar icon without clear instructions or labels indicating that it will lead to the list of issues. This uncertainty could prevent Abi from taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon clicking the issue icon, Abi will be directed to a page that clearly lists the issues, complete with labels, dates, and additional information. This page provides comprehensive and organized information, which aligns with Abi's information processing style. The clear visibility of issues and their details will help Abi understand that they have made progress towards their goal, providing the necessary confidence and clarity to proceed with selecting an issue to work on.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page provides comprehensive information about the issues, which aligns with Abi's information processing style. The clear presentation of issues will help Abi understand that they are making progress toward their goal of finding an issue to work on. The detailed list will also motivate Abi as it directly addresses their goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical step towards the overall goal of finding and working on an issue. The issue list page clearly displays various issues, complete with details such as titles, tags, and dates, which align with Abi's comprehensive information processing style. This indicates that Abi will recognize this step as making progress towards the goal of finding an issue to work on.</t>
+Why: The page clearly lists various issues with details such as titles, importance, and status. This aligns with Abi's goal of finding an issue to work on. The comprehensive list of issues provides the necessary information for Abi to select an issue, which is a logical step toward achieving the overall use case. The clear presentation and relevant details will help Abi feel motivated and confident that they are making progress.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page is clearly laid out with a list of issues, each labeled with relevant information such as title, date, and tags. This presentation aligns well with Abi's comprehensive information processing style, as it allows them to gather all necessary details to make an informed decision. Additionally, Abi is motivated to find an issue to work on, and reading through this list is a logical and straightforward step towards that goal. The clear and organized format of the issues will help Abi understand what to do at this step without confusion.</t>
+Why: The page provides a clear and detailed list of issues, including titles, importance, and status. This aligns with Abi's comprehensive information processing style, as they prefer to gather all relevant information before making a decision. The structured presentation of issues will help Abi understand what to do at this step, and the detailed information will motivate them to read through the list to select an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: Reading through the list of issues will provide Abi with detailed information about each issue, including titles, tags, and update times. This aligns with Abi's comprehensive information processing style, as they will be able to gather all necessary details to evaluate and select an issue to work on. The clear and organized presentation of the issues will help Abi feel that they are making progress towards their goal. The information is well-structured and easily accessible, ensuring that Abi can confidently understand that they are on the right track.</t>
+Why: The page provides a detailed list of issues, including titles, importance, and status, which aligns with Abi's comprehensive information processing style. By reading through the list, Abi will be able to gather all the necessary information to select an issue to work on. The clear and structured presentation of issues will help Abi understand that they are making progress toward their goal. The detailed information provided for each issue will ensure that Abi has all the information they need to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists issues with clickable titles, making it intuitive for Abi to understand that clicking on an issue will provide more details. This is a straightforward action that aligns with Abi's comprehensive information processing style, as it allows them to delve deeper into specific issues and gather all necessary information. The clear layout and visible clickable elements ensure that Abi will know what to do at this step and feel confident in taking this action.</t>
+Why: The page provides a clear and detailed list of issues, each with a clickable title. This aligns with Abi's comprehensive information processing style, as they can read through the list and select an issue that interests them. The clickable titles are intuitive and indicate that more information about the issue can be accessed by clicking on them. This clear and structured presentation will help Abi understand what to do at this step and feel confident in taking the action to select an issue.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any substantial content that would help Abi understand the issue fully. This minimal information may not align with Abi's comprehensive information processing style, leaving them uncertain if they have made the right choice and if they are making progress toward their goal. Additionally, the lack of detailed guidance might affect Abi's confidence, making them unsure if they have all the information they need to proceed.</t>
+Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page lacks detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue fully. Given Abi's comprehensive information processing style, they would likely feel that they do not have enough information to proceed. Additionally, Abi's low computer self-efficacy might make them feel uncertain about what to do next without clear guidance or detailed information. This could hinder their confidence in knowing that they did the right thing and are making progress toward their goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG4.xlsx
+++ b/outputs/PITTSBURG4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,90 +424,90 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page primarily displays a repository's file structure and some general information about the project. There is no clear indication or direct link to a list of issues or where to find them. Given Abi's comprehensive information processing style, she would need more explicit guidance or a clear path to find the issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the repository without clear instructions. Therefore, Abi is unlikely to consider this page as a step toward finding a list of issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to ensure she has not missed any relevant details. The page is not overwhelming and provides structured information, making it likely that Abi will feel comfortable taking this action to find more information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find a direct link or clear information about where to find the list of issues. The page provides general information about the project, technologies used, and contact details, but it does not explicitly guide Abi to the issues section. Given Abi's comprehensive information processing style, she needs clear and direct information to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of explicit guidance may cause her to feel uncertain about whether she is on the right track. Therefore, Abi will not know that she did the right thing or is making progress toward finding the list of issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy, she might not feel confident clicking on an icon without knowing exactly what it does. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here. Without explicit guidance or labeling, Abi is unlikely to know that clicking the issue icon is the correct action to find the list of issues.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information about the issues, which aligns with Abi's information processing style. The clear presentation of issues will help Abi understand that she is making progress toward her goal of finding an issue to work on. The structured and detailed information will also motivate her, as it directly supports her task of finding an issue for a newcomer to work on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a comprehensive overview of the repository, including various files and documentation. ABI, who prefers to gather information comprehensively, would likely consider this a step toward finding issues to work on. The presence of a "Contribute.md" file and other documentation suggests that this page is a good starting point for understanding the project and finding relevant issues.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+Why: The page clearly lists various issues, including their titles, creation dates, and statuses, which directly aligns with Abi's goal of finding an issue to work on. Given Abi's comprehensive information processing style, she will recognize that selecting an issue is a necessary step toward achieving her overall use case. The structured and detailed presentation of issues will help Abi feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. The page contains a lot of information, and scrolling down will allow ABI to gather more details about the project, which is necessary for understanding where to find the list of issues. The presence of various sections and documentation suggests that more relevant information might be found by scrolling.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page presents a clear and organized list of issues, including their titles, creation dates, and statuses. This structured presentation aligns with Abi's comprehensive information processing style, making it easy for her to read through the list and understand the details of each issue. Additionally, the clear layout and relevant information will motivate Abi, as it directly supports her goal of selecting an issue to work on. Therefore, Abi will know what to do at this step and will find the page good enough to take this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, ABI will find additional information about the project, including details about FLOSScoach, technologies used, and contact points. However, this information does not directly provide a list of issues or indicate where to find them. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not feel that they are making progress toward finding the list of issues. The page lacks clear guidance or direct links to the issues, which could leave ABI uncertain about the next steps.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled, and ABI, who has low confidence in unfamiliar computing tasks, might not immediately recognize it as the place to find issues. Additionally, ABI prefers process-oriented learning and clear instructions, which are not provided on this page. Without clear guidance or labeling, ABI might be hesitant to click on the icon, fearing it might not lead to the desired information.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. Abi, with her comprehensive information processing style, would need to click on each issue to gather more details, which might not be immediately clear to her. Additionally, due to her low computer self-efficacy, she might feel uncertain about whether she has enough information to make a decision just by reading the list. Therefore, Abi might not feel confident that she is making progress toward her goal or that she has all the information she needs just by reading through the list.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides a comprehensive overview of the issues, which aligns with ABI's preference for gathering detailed information. The clear presentation of issues will help ABI understand that they have made progress toward their goal of finding an issue to work on. The information is well-organized and directly relevant to the task, making it easy for ABI to recognize that they are on the right track.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical next step after finding the list of issues. ABI, who is motivated to accomplish tasks and prefers comprehensive information, would recognize that choosing a specific issue from the list is necessary to proceed with contributing to the project. The page clearly presents the issues, making it evident that selecting one is part of the process toward achieving the overall use case.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page clearly lists the issues with their titles, creation dates, and statuses, making it straightforward for ABI to read through the list. ABI, who prefers to gather comprehensive information, will understand that reading through the list is necessary to select an appropriate issue to work on. The layout and presentation of the issues are clear and organized, providing ABI with the information needed to make an informed decision.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists various issues with clickable titles, which is a common and intuitive design pattern for navigating to more detailed information. Given Abi's comprehensive information processing style, she will recognize that clicking on an issue title is the next logical step to gather more details about the issue. The structured presentation of issues and the clear indication that they are clickable will motivate Abi to take this action, as it directly supports her goal of selecting an issue to work on. Therefore, Abi will know what to do at this step and will find the page good enough to take this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the list of issues is clearly presented, ABI may not immediately know if they are making progress toward their goal just by reading through the list. The titles and brief descriptions might not provide enough context for ABI to determine which issues are suitable for a newcomer. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, might need more detailed information about each issue to feel confident in their choice. The page does not provide immediate, detailed guidance on which issues are appropriate for newcomers, which could leave ABI uncertain about their progress.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists the issues, and each issue is presented as a clickable item. ABI, who is motivated to accomplish tasks and prefers comprehensive information, will understand that clicking on an issue will provide more details about it. The layout and presentation of the issues make it evident that selecting an issue is the next step in the process. The action of clicking on an issue is straightforward and aligns with ABI's goal of finding an issue to work on.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue's title, creation date, and some basic details, but it lacks comprehensive information that ABI might need to determine if this is the right issue to work on. ABI, who prefers detailed information and has low confidence in unfamiliar tasks, might not feel that they have made significant progress toward their goal. The page does not provide enough context or guidance on what steps to take next, which could leave ABI feeling uncertain about their progress.</t>
+Why: After clicking on an issue, Abi lands on a page with some details about the issue. However, the information provided is minimal and lacks comprehensive details that Abi might need to feel confident about selecting the issue to work on. Given Abi's comprehensive information processing style, she would need more detailed information about the issue, such as specific tasks, requirements, and context, which are not fully provided on this page. Additionally, due to her low computer self-efficacy, the lack of detailed guidance and information might make her feel uncertain about whether she is making progress toward her goal. Therefore, Abi might not feel confident that she did the right thing or that she has all the information she needs.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG4.xlsx
+++ b/outputs/PITTSBURG4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily displays a repository's file structure and some general information about the project. There is no clear indication or direct link to a list of issues or where to find them. Given Abi's comprehensive information processing style, she would need more explicit guidance or a clear path to find the issues. Additionally, due to her low computer self-efficacy, she might not feel confident navigating through the repository without clear instructions. Therefore, Abi is unlikely to consider this page as a step toward finding a list of issues.</t>
+Why: The page shown is a repository page with a list of files and some information about FLOSSCoach. There is no clear indication or section specifically labeled for issues or tasks for newcomers. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, might not immediately recognize this page as a step toward finding issues for newcomers. The lack of explicit information about issues would likely demotivate ABI from considering this as a relevant step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to ensure she has not missed any relevant details. The page is not overwhelming and provides structured information, making it likely that Abi will feel comfortable taking this action to find more information.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides structured information, which would encourage ABI to scroll down to explore more.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find a direct link or clear information about where to find the list of issues. The page provides general information about the project, technologies used, and contact details, but it does not explicitly guide Abi to the issues section. Given Abi's comprehensive information processing style, she needs clear and direct information to feel confident that she is making progress toward her goal. Additionally, due to her low computer self-efficacy, the lack of explicit guidance may cause her to feel uncertain about whether she is on the right track. Therefore, Abi will not know that she did the right thing or is making progress toward finding the list of issues.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a list of issues or a section specifically dedicated to issues for newcomers. The information provided is about FLOSSCoach, how to use it, and some general details about the project, but it does not directly address the subgoal of finding issues for newcomers. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, will not feel that she has made progress toward her goal and will not have all the information she needs. This lack of clear direction and relevant information will likely demotivate ABI.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled or explained on the page. Given Abi's low computer self-efficacy, she might not feel confident clicking on an icon without knowing exactly what it does. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here. Without explicit guidance or labeling, Abi is unlikely to know that clicking the issue icon is the correct action to find the list of issues.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easier for ABI to identify it as a potential place to find issues. Given ABI's comprehensive information processing style, she would likely notice the icon while scanning the page. Additionally, the icon is a common element in repositories for accessing issues, which might be familiar to ABI. This familiarity would help mitigate her low computer self-efficacy, making her more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the issue icon, Abi will be directed to a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information about the issues, which aligns with Abi's information processing style. The clear presentation of issues will help Abi understand that she is making progress toward her goal of finding an issue to work on. The structured and detailed information will also motivate her, as it directly supports her task of finding an issue for a newcomer to work on.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists issues, including their titles, creation dates, and labels. This page directly addresses ABI's subgoal of finding a list of issues for newcomers to work on. The structured and clear presentation of information will help ABI recognize that she has made progress toward her goal and has found the relevant information she needs. This will align with her motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues, including their titles, creation dates, and statuses, which directly aligns with Abi's goal of finding an issue to work on. Given Abi's comprehensive information processing style, she will recognize that selecting an issue is a necessary step toward achieving her overall use case. The structured and detailed presentation of issues will help Abi feel confident that she is making progress toward her goal.</t>
+Why: The page clearly lists various issues, including their titles, creation dates, and labels, which are relevant for selecting an issue to work on. ABI, who is motivated to accomplish tasks and prefers comprehensive information, will recognize that selecting an issue from this list is a logical step toward achieving the overall use case of finding an issue for a newcomer to work on. The structured presentation of issues will help ABI feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page presents a clear and organized list of issues, including their titles, creation dates, and statuses. This structured presentation aligns with Abi's comprehensive information processing style, making it easy for her to read through the list and understand the details of each issue. Additionally, the clear layout and relevant information will motivate Abi, as it directly supports her goal of selecting an issue to work on. Therefore, Abi will know what to do at this step and will find the page good enough to take this action.</t>
+Facets: 2. Information Processing Style
+Why: The page presents a clear and structured list of issues, including titles, creation dates, and labels. ABI, who prefers comprehensive information, will know to read through the list to gather the necessary details to select an issue to work on. The page is well-organized and not overwhelming, making it suitable for ABI to take this action and feel confident in her progress.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. Abi, with her comprehensive information processing style, would need to click on each issue to gather more details, which might not be immediately clear to her. Additionally, due to her low computer self-efficacy, she might feel uncertain about whether she has enough information to make a decision just by reading the list. Therefore, Abi might not feel confident that she is making progress toward her goal or that she has all the information she needs just by reading through the list.</t>
+Why: While ABI will know that reading through the list is the right action, she may not feel confident that she has all the information needed to select an issue to work on. The list provides titles and some labels, but it lacks detailed descriptions or indicators of which issues are suitable for newcomers. ABI, who prefers comprehensive information, might feel uncertain about which issue to choose without more context or guidance. This lack of detailed information could hinder her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists various issues with clickable titles, which is a common and intuitive design pattern for navigating to more detailed information. Given Abi's comprehensive information processing style, she will recognize that clicking on an issue title is the next logical step to gather more details about the issue. The structured presentation of issues and the clear indication that they are clickable will motivate Abi to take this action, as it directly supports her goal of selecting an issue to work on. Therefore, Abi will know what to do at this step and will find the page good enough to take this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and clearly lists issues with clickable titles, making it intuitive for ABI to know that she should click on an issue to get more details. The visual design and layout are straightforward, which aligns with ABI's preference for comprehensive information processing. Additionally, the familiar interface elements (such as clickable links) will help mitigate her low computer self-efficacy, making her feel more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with some details about the issue. However, the information provided is minimal and lacks comprehensive details that Abi might need to feel confident about selecting the issue to work on. Given Abi's comprehensive information processing style, she would need more detailed information about the issue, such as specific tasks, requirements, and context, which are not fully provided on this page. Additionally, due to her low computer self-efficacy, the lack of detailed guidance and information might make her feel uncertain about whether she is making progress toward her goal. Therefore, Abi might not feel confident that she did the right thing or that she has all the information she needs.</t>
+Why: After clicking on an issue, ABI lands on a page with minimal information about the issue. The page lacks detailed descriptions, steps to reproduce, or any indication of the complexity or suitability for a newcomer. ABI, who prefers comprehensive information, will not feel confident that she has all the necessary details to determine if this issue is appropriate for her to work on. The lack of detailed information and guidance will likely make ABI feel uncertain about her progress toward her goal.</t>
         </is>
       </c>
     </row>
